--- a/Julia Calhau/Bancos de Dados/Fequencia/frequencia.xlsx
+++ b/Julia Calhau/Bancos de Dados/Fequencia/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Documents\GitHub\SENAI2024\Julia Calhau\Bancos de Dados\Fequencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC6E2DC-60DB-4F73-A4C6-F757B0428952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CF4B48-F312-44B5-8FEB-8C92119AA9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
   <si>
     <t>Alunos</t>
   </si>
@@ -1075,10 +1075,10 @@
   <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25:C43"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1086,8 @@
     <col min="1" max="1" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.7109375" style="1"/>
+    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="1"/>
     <col min="6" max="6" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="23" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1169,6 +1170,9 @@
       <c r="C3" s="2">
         <v>45503</v>
       </c>
+      <c r="D3" s="2">
+        <v>45510</v>
+      </c>
       <c r="AJ3" s="4" t="s">
         <v>47</v>
       </c>
@@ -1186,6 +1190,9 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ4" s="4" t="s">
         <v>49</v>
       </c>
@@ -1203,6 +1210,9 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1220,6 +1230,9 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1237,6 +1250,9 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ7" s="4" t="s">
         <v>56</v>
       </c>
@@ -1254,6 +1270,9 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1271,6 +1290,9 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1288,6 +1310,9 @@
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ10" s="4" t="s">
         <v>61</v>
       </c>
@@ -1305,6 +1330,9 @@
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ11" s="4" t="s">
         <v>63</v>
       </c>
@@ -1322,6 +1350,9 @@
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ12" s="4" t="s">
         <v>66</v>
       </c>
@@ -1339,6 +1370,9 @@
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1356,6 +1390,9 @@
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1373,6 +1410,9 @@
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1390,6 +1430,9 @@
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1407,6 +1450,9 @@
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ17" s="4" t="s">
         <v>77</v>
       </c>
@@ -1424,6 +1470,9 @@
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ18" s="4" t="s">
         <v>78</v>
       </c>
@@ -1441,6 +1490,9 @@
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ19" s="4" t="s">
         <v>80</v>
       </c>
@@ -1458,6 +1510,9 @@
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ20" s="4" t="s">
         <v>81</v>
       </c>
@@ -1475,6 +1530,9 @@
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ21" s="4" t="s">
         <v>82</v>
       </c>
@@ -1492,6 +1550,9 @@
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ22" s="4" t="s">
         <v>84</v>
       </c>
@@ -1504,6 +1565,9 @@
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Julia Calhau/Bancos de Dados/Fequencia/frequencia.xlsx
+++ b/Julia Calhau/Bancos de Dados/Fequencia/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Documents\GitHub\SENAI2024\Julia Calhau\Bancos de Dados\Fequencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CF4B48-F312-44B5-8FEB-8C92119AA9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9682B02C-CF9B-4A70-BB4C-D1BC5CE03E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="90">
   <si>
     <t>Alunos</t>
   </si>
@@ -1078,7 +1078,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
     <col min="2" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="23" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1173,6 +1173,9 @@
       <c r="D3" s="2">
         <v>45510</v>
       </c>
+      <c r="E3" s="2">
+        <v>45517</v>
+      </c>
       <c r="AJ3" s="4" t="s">
         <v>47</v>
       </c>
@@ -1193,6 +1196,9 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ4" s="4" t="s">
         <v>49</v>
       </c>
@@ -1213,6 +1219,9 @@
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1233,6 +1242,9 @@
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1253,6 +1265,9 @@
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ7" s="4" t="s">
         <v>56</v>
       </c>
@@ -1273,6 +1288,9 @@
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1293,6 +1311,9 @@
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1313,6 +1334,9 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ10" s="4" t="s">
         <v>61</v>
       </c>
@@ -1333,6 +1357,9 @@
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ11" s="4" t="s">
         <v>63</v>
       </c>
@@ -1353,6 +1380,9 @@
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ12" s="4" t="s">
         <v>66</v>
       </c>
@@ -1373,6 +1403,9 @@
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1393,6 +1426,9 @@
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1413,6 +1449,9 @@
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1433,6 +1472,9 @@
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1453,6 +1495,9 @@
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ17" s="4" t="s">
         <v>77</v>
       </c>
@@ -1473,6 +1518,9 @@
       <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ18" s="4" t="s">
         <v>78</v>
       </c>
@@ -1493,6 +1541,9 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ19" s="4" t="s">
         <v>80</v>
       </c>
@@ -1513,6 +1564,9 @@
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ20" s="4" t="s">
         <v>81</v>
       </c>
@@ -1533,6 +1587,9 @@
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ21" s="4" t="s">
         <v>82</v>
       </c>
@@ -1553,6 +1610,9 @@
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ22" s="4" t="s">
         <v>84</v>
       </c>
@@ -1568,6 +1628,9 @@
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Julia Calhau/Bancos de Dados/Fequencia/frequencia.xlsx
+++ b/Julia Calhau/Bancos de Dados/Fequencia/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Documents\GitHub\SENAI2024\Julia Calhau\Bancos de Dados\Fequencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9682B02C-CF9B-4A70-BB4C-D1BC5CE03E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA398D1-982B-4851-89D1-B7AB568D7A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="90">
   <si>
     <t>Alunos</t>
   </si>
@@ -1078,7 +1078,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1088,7 @@
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="23" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="7.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1176,6 +1176,9 @@
       <c r="E3" s="2">
         <v>45517</v>
       </c>
+      <c r="F3" s="2">
+        <v>45524</v>
+      </c>
       <c r="AJ3" s="4" t="s">
         <v>47</v>
       </c>
@@ -1199,6 +1202,9 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ4" s="4" t="s">
         <v>49</v>
       </c>
@@ -1222,6 +1228,9 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1245,6 +1254,9 @@
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1268,6 +1280,9 @@
       <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ7" s="4" t="s">
         <v>56</v>
       </c>
@@ -1291,6 +1306,9 @@
       <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1314,6 +1332,9 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1337,6 +1358,9 @@
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ10" s="4" t="s">
         <v>61</v>
       </c>
@@ -1360,6 +1384,9 @@
       <c r="E11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ11" s="4" t="s">
         <v>63</v>
       </c>
@@ -1383,6 +1410,9 @@
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ12" s="4" t="s">
         <v>66</v>
       </c>
@@ -1406,6 +1436,9 @@
       <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1429,6 +1462,9 @@
       <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1452,6 +1488,9 @@
       <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AJ15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1475,6 +1514,9 @@
       <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1498,6 +1540,9 @@
       <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ17" s="4" t="s">
         <v>77</v>
       </c>
@@ -1521,6 +1566,9 @@
       <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ18" s="4" t="s">
         <v>78</v>
       </c>
@@ -1544,6 +1592,9 @@
       <c r="E19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ19" s="4" t="s">
         <v>80</v>
       </c>
@@ -1567,6 +1618,9 @@
       <c r="E20" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ20" s="4" t="s">
         <v>81</v>
       </c>
@@ -1590,6 +1644,9 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ21" s="4" t="s">
         <v>82</v>
       </c>
@@ -1613,6 +1670,9 @@
       <c r="E22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ22" s="4" t="s">
         <v>84</v>
       </c>
@@ -1631,6 +1691,9 @@
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
